--- a/prompt_db_extra.xlsx
+++ b/prompt_db_extra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3769fc6daee08390/Desktop/Assistant_GPT_Grad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Synced Desktop\Assistant_tests_2\gradienteapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8D0A5E-68B5-406E-B4B8-261BF75C5603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EA1A8F-4DF2-432C-831B-0245653E4BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
   </bookViews>
   <sheets>
     <sheet name="BO_Prompts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Placeholder</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>Given the information in the file attached, please write an overview in plain text of the company M&amp;A strategy only if it is present. Indicate also the date of these acquisitions and their consequences. Rules you must follow: avoid quoting your sources, for example : [1] and similar can't be in the output. Do it in no more than 5 lines.</t>
-  </si>
-  <si>
-    <t>clients_info</t>
-  </si>
-  <si>
-    <t>Given the information in the file attached, please write an overview of the client typologies, diversification, main clients' countries.</t>
   </si>
   <si>
     <t>Requirements</t>
@@ -141,6 +135,52 @@
   </si>
   <si>
     <t>Given the information in the files attached and nothing else you should create this response: The {company_name} is composed by: Enter the name and a brief description of the Group divisions in particular of the production centers of each group Division.Keep in mind that business unit and production centers are different things. Every Group Division should be indicated with a bullet point. Keep the information of the same group division inside the same bulltpoint.</t>
+  </si>
+  <si>
+    <t>revenues_type_clients</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached, for each company mentioned in the answer above, write a detailed report on the company's revenue breakdown by client typology.
+Please remember that revenues of a business division and who are the clients of a business division are two separate aspects and it's very important you don't confuse the two.
+For example, if hypothetically if a company was in the textile sector, it should report the percentage of revenues attributable to whole salers, and the percentage attributable to retail clients.</t>
+  </si>
+  <si>
+    <t>revenues_geography</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached, for each company mentioned in the answer above, write a detailed report on the company's revenue breakdown by geographical region.
+Please remember that revenues of a business division and who are the clients of a business division are two separate aspects and it's very important you don't confuse the two.</t>
+  </si>
+  <si>
+    <t>production_process</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached, please give an overview of the production process of the company,  highlighting (if mentioned) all of its stages.
+if in the files attached there was a particular focus on a given stage or results of the production process, please give more detailed description in a paragraph below.</t>
+  </si>
+  <si>
+    <t>r_and_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the information in the files attached, give a clear explanation of the products that are linked to the research and development area of the company of the file attached. In particular, focus on the advantages that these new technologies can bring. </t>
+  </si>
+  <si>
+    <t>cert_and_patents</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached, give a clear explanation of the certifications and patents that were obtained by the company. </t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached, give a clear explanation of the suppliers of the company, I repeat only information about suppliers and nothing else. In particular, focus on their type, dimension, if the company has a diversified supplier base. Please ensure to use only information about companies/entities/people that are listed explicitly as suppliers of factors of production that the companies use as input in their production process. Remember that there is a clear distinction between the companies that supply the company under analysis and the companies that the company under analysis supplies.</t>
+  </si>
+  <si>
+    <t>investment_rationale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the information in the files attached and nothing else. Explain the reasons why someone should invest in this company, highlight the main rationales behind them. Display every key with a bulletpoint. </t>
   </si>
 </sst>
 </file>
@@ -568,19 +608,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0820BC-FCBF-40B5-909D-39B11134D468}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +654,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,12 +686,12 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="114" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -678,7 +718,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="135.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="120.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -710,12 +750,12 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="228" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1">
@@ -742,17 +782,17 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:24" ht="210" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -774,17 +814,17 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="135" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -806,16 +846,16 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8"/>
+    <row r="8" spans="1:24" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -838,7 +878,1619 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="180" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="105" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="60.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D75CF05-0291-4FD5-BF6D-159C945AAAE0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="111.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BAEB8-6466-414D-9BF0-036FB23B1291}">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="71.650000000000006" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="114" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="240.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -864,7 +2516,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -890,7 +2542,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -916,7 +2568,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -942,7 +2594,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -968,7 +2620,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -994,7 +2646,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1020,7 +2672,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1046,7 +2698,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1072,7 +2724,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1098,7 +2750,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1124,7 +2776,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1150,7 +2802,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1176,7 +2828,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1202,7 +2854,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1228,7 +2880,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1254,7 +2906,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1280,7 +2932,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1306,7 +2958,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1332,7 +2984,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1358,7 +3010,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1384,7 +3036,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1410,7 +3062,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1436,7 +3088,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1462,7 +3114,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1488,7 +3140,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1514,7 +3166,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1540,7 +3192,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1566,7 +3218,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1592,7 +3244,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1618,7 +3270,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1644,7 +3296,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1670,7 +3322,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1696,7 +3348,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1722,7 +3374,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1748,7 +3400,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1774,7 +3426,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1800,7 +3452,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1826,7 +3478,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1852,7 +3504,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1878,7 +3530,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1904,7 +3556,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1930,7 +3582,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1956,7 +3608,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1987,1435 +3639,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D75CF05-0291-4FD5-BF6D-159C945AAAE0}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="111.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="309.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BAEB8-6466-414D-9BF0-036FB23B1291}">
-  <dimension ref="A1:X52"/>
-  <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="240.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E0511E-9EDC-4609-944D-415CBC67976A}">
   <dimension ref="A1:A2"/>
@@ -3424,19 +3647,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="111.88671875" customWidth="1"/>
+    <col min="1" max="1" width="111.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="309.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3452,14 +3675,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="131.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="330.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="330.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/prompt_db_extra.xlsx
+++ b/prompt_db_extra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Synced Desktop\Assistant_tests_2\gradienteapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EA1A8F-4DF2-432C-831B-0245653E4BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B97624-F027-4F34-8F60-E5433C9DD014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
   </bookViews>
   <sheets>
     <sheet name="BO_Prompts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Placeholder</t>
   </si>
@@ -95,28 +95,6 @@
   </si>
   <si>
     <t>company_brief</t>
-  </si>
-  <si>
-    <t>given the material at your disposal, give a brief overview of the future prospects of the company's main reference market.
-you should answer by quoting the company's name and the main reference market, plus a very brief overview of the growth prospects, quoting CAGR if the information is available.</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>for each of the companies described above do the following:
-give a two-to-three lines, it is mandatory that it is this brief, description of the company reference market and the growth prospects of this market based on the files attached.
-Don't expand too much as we will go more in detail in following prompts.</t>
-  </si>
-  <si>
-    <t>products_forecasts</t>
-  </si>
-  <si>
-    <t>given the information about the products of the company written above and the files attached, please give detailed growth prospects of the market for the main products of the company.
-when explaining the growth prospects for each of the main products or business lines, you can also expand on:
-recent market trends
-macroeconomics trends and how they may impact the growth prospects.
-legislative and geopolitical developments that may impact the growth prospects.</t>
   </si>
   <si>
     <t xml:space="preserve">Your answer should also consider the following instructions:
@@ -131,9 +109,6 @@
 legislative and geopolitical developments that may impact the growth prospects.</t>
   </si>
   <si>
-    <t xml:space="preserve">Given the information in the file attached, please give an overview of the products that the company produces/brings to market. The answer should have the following format: {company name} {brief one/two liner on the sector in which it operates}. This overview should be followed by a  bullet point list of the products with format: {product with a brief description if found} {financial impact on total sales if found}. Example: Company A operates in the lumber business and supplies many local businesses. In particular it produces: -{product1 with a brief description if found} {financial impact on total sales if found} -{product2 with a brief description if found} {financial impact on total sales if found} Please, check if the company is a group. If the company is a group, please do this for each of the companies that are in the group. If the company is not a group then give the answer for the overall company. please ensure that your follow the format specification. Ensure that your answers are detailed and comprehensive. </t>
-  </si>
-  <si>
     <t>Given the information in the files attached and nothing else you should create this response: The {company_name} is composed by: Enter the name and a brief description of the Group divisions in particular of the production centers of each group Division.Keep in mind that business unit and production centers are different things. Every Group Division should be indicated with a bullet point. Keep the information of the same group division inside the same bulltpoint.</t>
   </si>
   <si>
@@ -181,6 +156,83 @@
   </si>
   <si>
     <t xml:space="preserve">Given the information in the files attached and nothing else. Explain the reasons why someone should invest in this company, highlight the main rationales behind them. Display every key with a bulletpoint. </t>
+  </si>
+  <si>
+    <t>JSON_make</t>
+  </si>
+  <si>
+    <t>JSON_question</t>
+  </si>
+  <si>
+    <t>JSON_use</t>
+  </si>
+  <si>
+    <t>business_report_companies</t>
+  </si>
+  <si>
+    <t>give me a list of the companies that are part of the group above please</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the information in the file attached, please give an overview of the products that each of the following companies produces/brings to market:
+{json_output}
+The answer should have the following format: {company name} {brief one/two liner on the sector in which it operates}. 
+This overview should be followed by a  bullet point list of the products with format: {product with a brief description if found} {financial impact on total sales if found}. 
+Example: Company A operates in the lumber business and supplies many local businesses. In particular it produces: 
+-{product1 with a brief description if found} {financial impact on total sales if found} 
+-{product2 with a brief description if found} {financial impact on total sales if found} 
+If the information is present, first create a bullet point with the macro-category to which multiple products belong to and then a sub-bullet point list with the products belonging to the macro-category.
+If the company is not a group then give the answer for the overall company. 
+Please ensure that your follow the bullet point format specification, it is very important.
+Ensure that your answers are detailed and comprehensive. </t>
+  </si>
+  <si>
+    <t>For_loop</t>
+  </si>
+  <si>
+    <t>Given the previous answer, for the following companies:
+{json_output}
+Give a brief overview of the macro-sector in which they operate containing the market size and the projected growth.
+For example: If a company operates in the luxury apparel sector and in particular also in the luxury jackets and hats, at this stage talk only about the macro-sector, which is luxury apparel
+If present in the information in the files attached, write the forecaste CAGR and its forecast horizon.
+If multiple companies share the same macro-sector, give the report just once.
+Please, provide the answer for each macro-sector in textual form without quoting the companies at this stage.</t>
+  </si>
+  <si>
+    <t>macro_sector</t>
+  </si>
+  <si>
+    <t>Using only the information in the attached files, identify the macro-sector in which the company operates and provide a concise summary of the market size and projected growth rate. The response should be structured as follows:
+"The [macro-sector] market size was estimated at $[X] billion in [year] and is projected to grow at a CAGR of [Y]% during the forecast period [start year]-[end year]."
+Guidelines:
+1. Focus only on the macro-sector, market size, and projected growth rate.
+2. Provide numbers as found in the report; do not invent data or extrapolate.
+3. Keep the response to one sentence, following the format strictly.
+4. If any required data is missing, state "Information not available."</t>
+  </si>
+  <si>
+    <t>prod_cagr</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached and the information of the company above, please provide a concise summary of the {sector} market size and projected growth rate. The response should be structured as follows:
+"The {sector} market size was estimated at $[X] billion in [year] and is projected to grow at a CAGR of [Y]% during the forecast period [start year]-[end year]."
+Guidelines:
+1. Focus only on the market size, and projected growth rate.
+2. Provide numbers as found in the report; do not invent data or extrapolate.
+3. Keep the response to one sentence, following the format strictly.
+4. If any required data is missing, state "Information not available."</t>
+  </si>
+  <si>
+    <t>cagr_motivations</t>
+  </si>
+  <si>
+    <t>Given the files attached and the forecasts about the future development of the {sector} market (whether through a CAGR forecast or other measures), please provide a detailed report exploring the underlying factors driving these projections. The analysis should primarily rely on the relevant facts and insights provided in the documents, presenting a cohesive narrative that integrates these findings.
+While exploring the reasons behind the forecasts, you may consider dimensions such as current/forecasted market trends/dynamics, legislative and geopolitical developments, and broader macroeconomic trends. However, the focus should remain on synthesizing and combining the factual information from the provided materials to construct a well-supported explanation of the forecasted growth.</t>
+  </si>
+  <si>
+    <t>company_specific</t>
+  </si>
+  <si>
+    <t>Given the products and the information you have about the company, how do you think the company is positioned with respect to the opportunities and risks presented by your previous answer</t>
   </si>
 </sst>
 </file>
@@ -254,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -274,6 +326,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,19 +663,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0820BC-FCBF-40B5-909D-39B11134D468}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="B1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="54.1328125" customWidth="1"/>
+    <col min="4" max="4" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,12 +687,18 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -653,8 +716,11 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,12 +728,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -685,21 +751,27 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="114" x14ac:dyDescent="0.45">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="114" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -717,8 +789,11 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="120.4" x14ac:dyDescent="0.45">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="120.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -726,12 +801,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="1">
+      <c r="E4" s="11"/>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -749,21 +822,26 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="228" x14ac:dyDescent="0.45">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="1">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -781,20 +859,23 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" ht="210" x14ac:dyDescent="0.45">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="210" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -813,20 +894,23 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" ht="135" x14ac:dyDescent="0.45">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -845,8 +929,11 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -854,12 +941,12 @@
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -877,13 +964,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -907,13 +997,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" ht="57" x14ac:dyDescent="0.45">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -937,13 +1030,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.45">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -967,13 +1063,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" ht="180" x14ac:dyDescent="0.45">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="180" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -997,8 +1096,11 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" ht="105" x14ac:dyDescent="0.45">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1006,9 +1108,1747 @@
         <v>13</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>6</v>
       </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="60.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D75CF05-0291-4FD5-BF6D-159C945AAAE0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="111.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BAEB8-6466-414D-9BF0-036FB23B1291}">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="271.14999999999998" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="228" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="E3" s="11"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="11"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="11"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="11"/>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1030,14 +2870,10 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="60.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2048,1592 +3884,6 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D75CF05-0291-4FD5-BF6D-159C945AAAE0}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="111.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BAEB8-6466-414D-9BF0-036FB23B1291}">
-  <dimension ref="A1:X52"/>
-  <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="71.650000000000006" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="114" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="240.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3659,7 +3909,7 @@
     </row>
     <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="330.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/prompt_db_extra.xlsx
+++ b/prompt_db_extra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Synced Desktop\Assistant_tests_2\gradienteapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo\OneDrive\Desktop\assistant_project_home\gradienteapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B97624-F027-4F34-8F60-E5433C9DD014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656BBD0A-DA80-4948-8124-994F17505CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
   </bookViews>
   <sheets>
     <sheet name="BO_Prompts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Placeholder</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Given the products and the information you have about the company, how do you think the company is positioned with respect to the opportunities and risks presented by your previous answer</t>
+  </si>
+  <si>
+    <t>_esg_</t>
+  </si>
+  <si>
+    <t>Given the information in the files attached and the files attached only, please report information about the company’s ESG profile. Does it stand to benefit or be hindered by the focus on ESG? Does it have an ESG strategy? Please, for this answer in particular, try to be concise.</t>
   </si>
 </sst>
 </file>
@@ -663,21 +669,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0820BC-FCBF-40B5-909D-39B11134D468}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.1328125" customWidth="1"/>
-    <col min="4" max="4" width="23.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.06640625" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +726,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,7 +761,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="114" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,7 +799,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="120.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="135.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -826,7 +832,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -863,7 +869,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="210" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -898,7 +904,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -933,7 +939,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,7 +974,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1007,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1040,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1073,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="180" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1106,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1135,17 +1141,17 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="60.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1168,10 +1174,14 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:27" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1197,13 +1207,13 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1226,7 +1236,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1255,7 +1265,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1284,7 +1294,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1313,7 +1323,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1342,7 +1352,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1371,7 +1381,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1400,7 +1410,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1429,7 +1439,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1458,7 +1468,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1487,7 +1497,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1516,7 +1526,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1545,7 +1555,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1574,7 +1584,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1603,7 +1613,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1632,7 +1642,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1661,7 +1671,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1690,7 +1700,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1719,7 +1729,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1748,7 +1758,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1777,7 +1787,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1806,7 +1816,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1835,7 +1845,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1864,7 +1874,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1893,7 +1903,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1922,7 +1932,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1951,7 +1961,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1980,7 +1990,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2009,7 +2019,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2038,7 +2048,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2067,7 +2077,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2096,7 +2106,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2125,7 +2135,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2154,7 +2164,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2183,7 +2193,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2212,7 +2222,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2241,7 +2251,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2270,7 +2280,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2299,7 +2309,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2328,7 +2338,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2357,7 +2367,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2386,7 +2396,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2415,7 +2425,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2444,10 +2454,39 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2463,17 +2502,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="111.86328125" customWidth="1"/>
+    <col min="1" max="1" width="111.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2488,16 +2527,16 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.1328125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2578,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="271.14999999999998" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" ht="315.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -2571,7 +2610,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="228" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2637,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -2628,7 +2667,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -2658,7 +2697,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -2688,7 +2727,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2714,7 +2753,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2740,7 +2779,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2766,7 +2805,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2792,7 +2831,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2818,7 +2857,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2844,7 +2883,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2870,7 +2909,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2896,7 +2935,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2922,7 +2961,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2948,7 +2987,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2974,7 +3013,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3000,7 +3039,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3026,7 +3065,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3052,7 +3091,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3078,7 +3117,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3104,7 +3143,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3130,7 +3169,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3156,7 +3195,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3182,7 +3221,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3208,7 +3247,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3234,7 +3273,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3260,7 +3299,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3286,7 +3325,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3312,7 +3351,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3338,7 +3377,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3364,7 +3403,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3390,7 +3429,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3416,7 +3455,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3442,7 +3481,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3468,7 +3507,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3494,7 +3533,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3520,7 +3559,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3546,7 +3585,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3572,7 +3611,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3598,7 +3637,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3624,7 +3663,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3650,7 +3689,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3676,7 +3715,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3702,7 +3741,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3728,7 +3767,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3754,7 +3793,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3780,7 +3819,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3806,7 +3845,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3832,7 +3871,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3858,7 +3897,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3897,17 +3936,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="111.86328125" customWidth="1"/>
+    <col min="1" max="1" width="111.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -3925,12 +3964,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="131.33203125" customWidth="1"/>
+    <col min="2" max="2" width="131.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="330.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="330.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>

--- a/prompt_db_extra.xlsx
+++ b/prompt_db_extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo\OneDrive\Desktop\assistant_project_home\gradienteapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656BBD0A-DA80-4948-8124-994F17505CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B7C92-B81B-4EFE-BCCB-6EF34C627168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
   </bookViews>
   <sheets>
     <sheet name="BO_Prompts" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0820BC-FCBF-40B5-909D-39B11134D468}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BAEB8-6466-414D-9BF0-036FB23B1291}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="86" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/prompt_db_extra.xlsx
+++ b/prompt_db_extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo\OneDrive\Desktop\assistant_project_home\gradienteapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B7C92-B81B-4EFE-BCCB-6EF34C627168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E39F7-3438-4089-B979-7D51DBDD18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7E631529-2C43-4D2C-BA6F-9F76727B040F}"/>
   </bookViews>
   <sheets>
     <sheet name="BO_Prompts" sheetId="1" r:id="rId1"/>
@@ -189,15 +189,6 @@
     <t>For_loop</t>
   </si>
   <si>
-    <t>Given the previous answer, for the following companies:
-{json_output}
-Give a brief overview of the macro-sector in which they operate containing the market size and the projected growth.
-For example: If a company operates in the luxury apparel sector and in particular also in the luxury jackets and hats, at this stage talk only about the macro-sector, which is luxury apparel
-If present in the information in the files attached, write the forecaste CAGR and its forecast horizon.
-If multiple companies share the same macro-sector, give the report just once.
-Please, provide the answer for each macro-sector in textual form without quoting the companies at this stage.</t>
-  </si>
-  <si>
     <t>macro_sector</t>
   </si>
   <si>
@@ -239,6 +230,15 @@
   </si>
   <si>
     <t>Given the information in the files attached and the files attached only, please report information about the company’s ESG profile. Does it stand to benefit or be hindered by the focus on ESG? Does it have an ESG strategy? Please, for this answer in particular, try to be concise.</t>
+  </si>
+  <si>
+    <t>Given the previous answer, for the following companies:
+{json_output}
+Give a brief overview of the macro-sector in which they operate containing the market size and the projected growth.
+For example: If a company operates in the luxury apparel sector and in particular also in the luxury jackets and hats, at this stage talk only about the macro-sector, which is luxury apparel
+If present in the information in the files attached, write the forecaste CAGR and its forecast horizon.
+If multiple companies share the same macro-sector, give the report just once.
+Please, provide the answer for each macro-sector in textual form without quoting the companies at this stage. Try to be concise.</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0820BC-FCBF-40B5-909D-39B11134D468}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="92" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1"/>
@@ -2526,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BAEB8-6466-414D-9BF0-036FB23B1291}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,12 +2578,12 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="315.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="330.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="3" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C3" s="3"/>
       <c r="E3" s="11"/>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="4" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C4" s="3"/>
       <c r="E4" s="11"/>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="5" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="11"/>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="6" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="11"/>
